--- a/Configs/GameConfig/Datas/UIWnd.xlsx
+++ b/Configs/GameConfig/Datas/UIWnd.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9555"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>##var</t>
   </si>
@@ -59,13 +59,10 @@
     <t>##group</t>
   </si>
   <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>##</t>
   </si>
   <si>
-    <t>ui名称</t>
+    <t>ui脚本名称</t>
   </si>
   <si>
     <t>预制体路径</t>
@@ -83,16 +80,82 @@
     <t>MainUI/StartPanel</t>
   </si>
   <si>
-    <t>SelectCanvas</t>
-  </si>
-  <si>
-    <t>MainUI/SelectCanvas</t>
-  </si>
-  <si>
-    <t>TestPanel1</t>
-  </si>
-  <si>
-    <t>MainUI/TestPanel1</t>
+    <t>GMBag</t>
+  </si>
+  <si>
+    <t>GM/GMBag</t>
+  </si>
+  <si>
+    <t>PreparePanel</t>
+  </si>
+  <si>
+    <t>MainUI/PreparePanel</t>
+  </si>
+  <si>
+    <t>ArchivePanel</t>
+  </si>
+  <si>
+    <t>MainUI/ArchivePanel</t>
+  </si>
+  <si>
+    <t>UpGradePanel</t>
+  </si>
+  <si>
+    <t>Fight/UpGradePanel</t>
+  </si>
+  <si>
+    <t>GridUIManager</t>
+  </si>
+  <si>
+    <t>BagUI/NewBagUIPanel</t>
+  </si>
+  <si>
+    <t>HextechPanel</t>
+  </si>
+  <si>
+    <t>Fight/HextechPanel</t>
+  </si>
+  <si>
+    <t>StatePanel</t>
+  </si>
+  <si>
+    <t>Fight/NewFightUIPanel</t>
+  </si>
+  <si>
+    <t>FlairPanel</t>
+  </si>
+  <si>
+    <t>MainUI/FlairPanel</t>
+  </si>
+  <si>
+    <t>UI_SettlementWindow</t>
+  </si>
+  <si>
+    <t>MainUI/UI_SettlementWindow</t>
+  </si>
+  <si>
+    <t>ChooseRolePanel</t>
+  </si>
+  <si>
+    <t>MainUI/RoleChoosePanel</t>
+  </si>
+  <si>
+    <t>StageMapPanel</t>
+  </si>
+  <si>
+    <t>BagUI/StageMapPanel</t>
+  </si>
+  <si>
+    <t>ChoiceSkillPanel</t>
+  </si>
+  <si>
+    <t>BagUI/ChoiceSkillPanel</t>
+  </si>
+  <si>
+    <t>SettingPanel</t>
+  </si>
+  <si>
+    <t>MainUI/SettingPanel</t>
   </si>
 </sst>
 </file>
@@ -1036,20 +1099,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="22.1238938053097" customWidth="1"/>
-    <col min="3" max="3" width="21.2477876106195" customWidth="1"/>
-    <col min="5" max="5" width="18.8761061946903" customWidth="1"/>
-    <col min="6" max="7" width="21.2477876106195" customWidth="1"/>
-    <col min="9" max="9" width="18.8761061946903" customWidth="1"/>
-    <col min="10" max="10" width="22.1238938053097" customWidth="1"/>
+    <col min="2" max="2" width="22.1333333333333" customWidth="1"/>
+    <col min="3" max="3" width="21.25" customWidth="1"/>
+    <col min="5" max="5" width="18.8833333333333" customWidth="1"/>
+    <col min="6" max="7" width="21.25" customWidth="1"/>
+    <col min="9" max="9" width="18.8833333333333" customWidth="1"/>
+    <col min="10" max="10" width="22.1333333333333" customWidth="1"/>
     <col min="11" max="11" width="25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1087,37 +1150,34 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1128,40 +1188,185 @@
     </row>
     <row r="6" customFormat="1" spans="2:5">
       <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" spans="2:5">
-      <c r="B7" s="1" t="s">
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" spans="2:2">
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" customFormat="1" spans="2:2">
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="1"/>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
